--- a/wikischema/File/Electrochemical_Conversion_Template.xlsx
+++ b/wikischema/File/Electrochemical_Conversion_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{007A2EA7-72FA-42BC-A386-5F1E253EC473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE82DE53-7D06-4641-B333-79696BDCDB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+  <si>
+    <t>Experiment Type &lt;experiment_type&gt;</t>
+  </si>
   <si>
     <t>Catalyst_inchikey &lt;catalyst&gt;</t>
   </si>
@@ -40,79 +43,103 @@
     <t>Cell type &lt;cell type&gt;</t>
   </si>
   <si>
-    <t>Solvent A at &lt;solvent_A__WE&gt;</t>
-  </si>
-  <si>
-    <t>Solvent A at &lt;solvent_A__CE&gt;</t>
-  </si>
-  <si>
-    <t>Solvent B at &lt;solvent_B__WE&gt;</t>
-  </si>
-  <si>
-    <t>Solvent B at &lt;solvent_B__CE&gt;</t>
-  </si>
-  <si>
-    <t>Solvent C at &lt;solvent_C__WE&gt;</t>
-  </si>
-  <si>
-    <t>Solvent C at &lt;solvent_C__CE&gt;</t>
-  </si>
-  <si>
-    <t>Solvent ration at_inchikey &lt;solvent_ratio__WE&gt;</t>
-  </si>
-  <si>
-    <t>Solvent ration at_molfile</t>
-  </si>
-  <si>
-    <t>Solvent ration at_inchikey &lt;solvent_ratio__CE&gt;</t>
-  </si>
-  <si>
-    <t>Additives at &lt;additives__WE&gt;</t>
-  </si>
-  <si>
-    <t>Additives at &lt;additives__CE&gt;</t>
-  </si>
-  <si>
-    <t>Additives concentration at &lt;additives_concentration__WE&gt;</t>
-  </si>
-  <si>
-    <t>Additives concentration at &lt;additives_concentration__CE&gt;</t>
-  </si>
-  <si>
-    <t>Buffer at &lt;buffer__WE&gt;</t>
-  </si>
-  <si>
-    <t>Buffer at &lt;buffer__CE&gt;</t>
-  </si>
-  <si>
-    <t>Buffer concentration at &lt;buffer_concentration__WE&gt;</t>
-  </si>
-  <si>
-    <t>Buffer concentration at &lt;buffer_concentration__CE&gt;</t>
-  </si>
-  <si>
-    <t>Supporting electrolyte at &lt;supporting_electrolyte__WE&gt;</t>
-  </si>
-  <si>
-    <t>Supporting electrolyte at &lt;supporting_electrolyte__CE&gt;</t>
-  </si>
-  <si>
-    <t>Supporting electrolyte concentration at &lt;supporting_electrolyte_concentration__WE&gt;</t>
-  </si>
-  <si>
-    <t>Supporting electrolyte concentration at &lt;supporting_electrolyte_concentration__CE&gt;</t>
-  </si>
-  <si>
-    <t>PH &lt;pH&gt;</t>
+    <t>Separator &lt;separator&gt;</t>
+  </si>
+  <si>
+    <t>Working electrode &lt;working electrode&gt;</t>
+  </si>
+  <si>
+    <t>Counter electrode &lt;counter electrode&gt;</t>
+  </si>
+  <si>
+    <t>Reference electrode &lt;reference electrode&gt;</t>
+  </si>
+  <si>
+    <t>Solvent A(WE)_inchikey &lt;solvent_A__WE&gt;</t>
+  </si>
+  <si>
+    <t>Solvent A at (WE)_molfile</t>
+  </si>
+  <si>
+    <t>Solvent A(CE)_inchikey &lt;solvent_A__CE&gt;</t>
+  </si>
+  <si>
+    <t>Solvent A at (CE)_molfile</t>
+  </si>
+  <si>
+    <t>Solvent B(WE)_inchikey &lt;solvent_B__WE&gt;</t>
+  </si>
+  <si>
+    <t>Solvent B at (WE)_molfile</t>
+  </si>
+  <si>
+    <t>Solvent B(CE)_inchikey &lt;solvent_B__CE&gt;</t>
+  </si>
+  <si>
+    <t>Solvent B at (CE)_molfile</t>
+  </si>
+  <si>
+    <t>Solvent C(WE)_inchikey &lt;solvent_C__WE&gt;</t>
+  </si>
+  <si>
+    <t>Solvent C at (WE)_molfile</t>
+  </si>
+  <si>
+    <t>Solvent C(CE)_inchikey &lt;solvent_C__CE&gt;</t>
+  </si>
+  <si>
+    <t>Solvent C at (CE)_molfile</t>
+  </si>
+  <si>
+    <t>Text(WE) &lt;solvent_ratio__WE&gt;</t>
+  </si>
+  <si>
+    <t>Text(CE) &lt;solvent_ratio__CE&gt;</t>
+  </si>
+  <si>
+    <t>Additives(WE) &lt;additives__WE&gt;</t>
+  </si>
+  <si>
+    <t>Additives(CE) &lt;additives__CE&gt;</t>
+  </si>
+  <si>
+    <t>Additives concentration(WE) &lt;additives_concentration__WE&gt;</t>
+  </si>
+  <si>
+    <t>Additives concentration(CE) &lt;additives_concentration__CE&gt;</t>
+  </si>
+  <si>
+    <t>Buffer(WE) &lt;buffer__WE&gt;</t>
+  </si>
+  <si>
+    <t>Buffer(CE) &lt;buffer__CE&gt;</t>
+  </si>
+  <si>
+    <t>Buffer concentration(WE) &lt;buffer_concentration__WE&gt;</t>
+  </si>
+  <si>
+    <t>Buffer concentration(CE) &lt;buffer_concentration__CE&gt;</t>
+  </si>
+  <si>
+    <t>Supporting electrolyte(WE) &lt;supporting_electrolyte__WE&gt;</t>
+  </si>
+  <si>
+    <t>Supporting electrolyte(CE) &lt;supporting_electrolyte__CE&gt;</t>
+  </si>
+  <si>
+    <t>Supporting electrolyte concentration(WE) &lt;supporting_electrolyte_concentration__WE&gt;</t>
+  </si>
+  <si>
+    <t>Supporting electrolyte concentration(CE) &lt;supporting_electrolyte_concentration__CE&gt;</t>
+  </si>
+  <si>
+    <t>PH value &lt;pH&gt;</t>
   </si>
   <si>
     <t>Current density [mA/cm²] &lt;current density&gt;</t>
   </si>
   <si>
-    <t>Cathodic potential_inchikey &lt;cathodic potential&gt;</t>
-  </si>
-  <si>
-    <t>Cathodic potential_molfile</t>
+    <t>Cathodic potential vs RHE [V] &lt;cathodic potential&gt;</t>
   </si>
   <si>
     <t>Faradaic amount [F] &lt;faradaic amount&gt;</t>
@@ -121,118 +148,124 @@
     <t>Electrolysis duration [h] &lt;electrolysis duration&gt;</t>
   </si>
   <si>
-    <t>Limiting turnover number at &lt;limiting_turnover_number__CO&gt;</t>
-  </si>
-  <si>
-    <t>Limiting turnover number at &lt;limiting_turnover_number__HCOOH&gt;</t>
-  </si>
-  <si>
-    <t>Limiting turnover number at &lt;limiting_turnover_number__H2C2O4&gt;</t>
-  </si>
-  <si>
-    <t>Limiting turnover number at &lt;limiting_turnover_number__H2CO&gt;</t>
-  </si>
-  <si>
-    <t>Limiting turnover number at &lt;limiting_turnover_number__CH3OH&gt;</t>
-  </si>
-  <si>
-    <t>Limiting turnover number at &lt;limiting_turnover_number__H2&gt;</t>
-  </si>
-  <si>
-    <t>Limiting turnover number at &lt;limiting_turnover_number__CH4&gt;</t>
-  </si>
-  <si>
-    <t>Limiting turnover number at &lt;limiting_turnover_number__C2H4&gt;</t>
-  </si>
-  <si>
-    <t>Limiting turnover number at &lt;limiting_turnover_number__CH3CH2OH&gt;</t>
-  </si>
-  <si>
-    <t>Maximum turnover frequency at &lt;maximum_turnover_frequency__CO&gt;</t>
-  </si>
-  <si>
-    <t>Maximum turnover frequency at &lt;maximum_turnover_frequency__HCOOH&gt;</t>
-  </si>
-  <si>
-    <t>Maximum turnover frequency at &lt;maximum_turnover_frequency__H2C2O4&gt;</t>
-  </si>
-  <si>
-    <t>Maximum turnover frequency at &lt;maximum_turnover_frequency__H2CO&gt;</t>
-  </si>
-  <si>
-    <t>Maximum turnover frequency at &lt;maximum_turnover_frequency__CH3OH&gt;</t>
-  </si>
-  <si>
-    <t>Maximum turnover frequency at &lt;maximum_turnover_frequency__H2&gt;</t>
-  </si>
-  <si>
-    <t>Maximum turnover frequency at &lt;maximum_turnover_frequency__CH4&gt;</t>
-  </si>
-  <si>
-    <t>Maximum turnover frequency at &lt;maximum_turnover_frequency__C2H4&gt;</t>
-  </si>
-  <si>
-    <t>Maximum turnover frequency at &lt;maximum_turnover_frequency__CH3CH2OH&gt;</t>
-  </si>
-  <si>
-    <t>Turnover frequency at zero overpotential at &lt;turnover_frequency_at_zero_overpotential__CO&gt;</t>
-  </si>
-  <si>
-    <t>Turnover frequency at zero overpotential at &lt;turnover_frequency_at_zero_overpotential__HCOOH&gt;</t>
-  </si>
-  <si>
-    <t>Turnover frequency at zero overpotential at &lt;turnover_frequency_at_zero_overpotential__H2C2O4&gt;</t>
-  </si>
-  <si>
-    <t>Turnover frequency at zero overpotential at &lt;turnover_frequency_at_zero_overpotential__H2CO&gt;</t>
-  </si>
-  <si>
-    <t>Turnover frequency at zero overpotential at &lt;turnover_frequency_at_zero_overpotential__CH3OH&gt;</t>
-  </si>
-  <si>
-    <t>Turnover frequency at zero overpotential at &lt;turnover_frequency_at_zero_overpotential__H2&gt;</t>
-  </si>
-  <si>
-    <t>Turnover frequency at zero overpotential at &lt;turnover_frequency_at_zero_overpotential__CH4&gt;</t>
-  </si>
-  <si>
-    <t>Turnover frequency at zero overpotential at &lt;turnover_frequency_at_zero_overpotential__C2H4&gt;</t>
-  </si>
-  <si>
-    <t>Turnover frequency at zero overpotential at &lt;turnover_frequency_at_zero_overpotential__CH3CH2OH&gt;</t>
-  </si>
-  <si>
-    <t>Faradaic efficiency at &lt;faradaic_efficiency__CO&gt;</t>
-  </si>
-  <si>
-    <t>Faradaic efficiency at &lt;faradaic_efficiency__HCOOH&gt;</t>
-  </si>
-  <si>
-    <t>Faradaic efficiency at &lt;faradaic_efficiency__H2C2O4&gt;</t>
-  </si>
-  <si>
-    <t>Faradaic efficiency at &lt;faradaic_efficiency__H2CO&gt;</t>
-  </si>
-  <si>
-    <t>Faradaic efficiency at &lt;faradaic_efficiency__CH3OH&gt;</t>
-  </si>
-  <si>
-    <t>Faradaic efficiency at &lt;faradaic_efficiency__H2&gt;</t>
-  </si>
-  <si>
-    <t>Faradaic efficiency at &lt;faradaic_efficiency__CH4&gt;</t>
-  </si>
-  <si>
-    <t>Faradaic efficiency at &lt;faradaic_efficiency__C2H4&gt;</t>
-  </si>
-  <si>
-    <t>Faradaic efficiency at &lt;faradaic_efficiency__CH3CH2OH&gt;</t>
+    <t>Limiting turnover number(CO) &lt;limiting_turnover_number__CO&gt;</t>
+  </si>
+  <si>
+    <t>Limiting turnover number(HCOOH) &lt;limiting_turnover_number__HCOOH&gt;</t>
+  </si>
+  <si>
+    <t>Limiting turnover number(H2C2O4) &lt;limiting_turnover_number__H2C2O4&gt;</t>
+  </si>
+  <si>
+    <t>Limiting turnover number(H2CO) &lt;limiting_turnover_number__H2CO&gt;</t>
+  </si>
+  <si>
+    <t>Limiting turnover number(CH3OH) &lt;limiting_turnover_number__CH3OH&gt;</t>
+  </si>
+  <si>
+    <t>Limiting turnover number(H2) &lt;limiting_turnover_number__H2&gt;</t>
+  </si>
+  <si>
+    <t>Limiting turnover number(CH4) &lt;limiting_turnover_number__CH4&gt;</t>
+  </si>
+  <si>
+    <t>Limiting turnover number(C2H4) &lt;limiting_turnover_number__C2H4&gt;</t>
+  </si>
+  <si>
+    <t>Limiting turnover number(CH3CH2OH) &lt;limiting_turnover_number__CH3CH2OH&gt;</t>
+  </si>
+  <si>
+    <t>Maximum turnover frequency(CO) &lt;maximum_turnover_frequency__CO&gt;</t>
+  </si>
+  <si>
+    <t>Maximum turnover frequency(HCOOH) &lt;maximum_turnover_frequency__HCOOH&gt;</t>
+  </si>
+  <si>
+    <t>Maximum turnover frequency(H2C2O4) &lt;maximum_turnover_frequency__H2C2O4&gt;</t>
+  </si>
+  <si>
+    <t>Maximum turnover frequency(H2CO) &lt;maximum_turnover_frequency__H2CO&gt;</t>
+  </si>
+  <si>
+    <t>Maximum turnover frequency(CH3OH) &lt;maximum_turnover_frequency__CH3OH&gt;</t>
+  </si>
+  <si>
+    <t>Maximum turnover frequency(H2) &lt;maximum_turnover_frequency__H2&gt;</t>
+  </si>
+  <si>
+    <t>Maximum turnover frequency(CH4) &lt;maximum_turnover_frequency__CH4&gt;</t>
+  </si>
+  <si>
+    <t>Maximum turnover frequency(C2H4) &lt;maximum_turnover_frequency__C2H4&gt;</t>
+  </si>
+  <si>
+    <t>Maximum turnover frequency(CH3CH2OH) &lt;maximum_turnover_frequency__CH3CH2OH&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency at zero overpotential(CO) &lt;turnover_frequency_at_zero_overpotential__CO&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency at zero overpotential(HCOOH) &lt;turnover_frequency_at_zero_overpotential__HCOOH&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency at zero overpotential(H2C2O4) &lt;turnover_frequency_at_zero_overpotential__H2C2O4&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency at zero overpotential(H2CO) &lt;turnover_frequency_at_zero_overpotential__H2CO&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency at zero overpotential(CH3OH) &lt;turnover_frequency_at_zero_overpotential__CH3OH&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency at zero overpotential(H2) &lt;turnover_frequency_at_zero_overpotential__H2&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency at zero overpotential(CH4) &lt;turnover_frequency_at_zero_overpotential__CH4&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency at zero overpotential(C2H4) &lt;turnover_frequency_at_zero_overpotential__C2H4&gt;</t>
+  </si>
+  <si>
+    <t>Turnover frequency at zero overpotential(CH3CH2OH) &lt;turnover_frequency_at_zero_overpotential__CH3CH2OH&gt;</t>
+  </si>
+  <si>
+    <t>Faradaic efficiency(CO) &lt;faradaic_efficiency__CO&gt;</t>
+  </si>
+  <si>
+    <t>Faradaic efficiency(HCOOH) &lt;faradaic_efficiency__HCOOH&gt;</t>
+  </si>
+  <si>
+    <t>Faradaic efficiency(H2C2O4) &lt;faradaic_efficiency__H2C2O4&gt;</t>
+  </si>
+  <si>
+    <t>Faradaic efficiency(H2CO) &lt;faradaic_efficiency__H2CO&gt;</t>
+  </si>
+  <si>
+    <t>Faradaic efficiency(CH3OH) &lt;faradaic_efficiency__CH3OH&gt;</t>
+  </si>
+  <si>
+    <t>Faradaic efficiency(H2) &lt;faradaic_efficiency__H2&gt;</t>
+  </si>
+  <si>
+    <t>Faradaic efficiency(CH4) &lt;faradaic_efficiency__CH4&gt;</t>
+  </si>
+  <si>
+    <t>Faradaic efficiency(C2H4) &lt;faradaic_efficiency__C2H4&gt;</t>
+  </si>
+  <si>
+    <t>Faradaic efficiency(CH3CH2OH) &lt;faradaic_efficiency__CH3CH2OH&gt;</t>
   </si>
   <si>
     <t>Details &lt;details&gt;</t>
   </si>
   <si>
     <t>Included &lt;include&gt;</t>
+  </si>
+  <si>
+    <t>Selectivity &lt;auto-generated-Selectivity&gt;</t>
+  </si>
+  <si>
+    <t>Total faradaic efficiency &lt;auto-generated-Total faradaic efficiency&gt;</t>
   </si>
   <si>
     <t>BasePageName &lt;BasePageName&gt;</t>
@@ -582,15 +615,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BU1"/>
+  <dimension ref="A1:CE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,178 +670,208 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
